--- a/data/pca/factorExposure/factorExposure_2017-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02386216987450979</v>
+        <v>-0.008220303809977616</v>
       </c>
       <c r="C2">
-        <v>-0.0002850256002964134</v>
+        <v>0.0443512566591282</v>
       </c>
       <c r="D2">
-        <v>-0.02078057829149831</v>
+        <v>0.02971134530893392</v>
       </c>
       <c r="E2">
-        <v>0.0109794869901234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03260002896797595</v>
+      </c>
+      <c r="F2">
+        <v>0.009555995990781484</v>
+      </c>
+      <c r="G2">
+        <v>0.074152973737005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01723363846684222</v>
+        <v>-0.04984641364925292</v>
       </c>
       <c r="C3">
-        <v>-0.05659446445999746</v>
+        <v>0.07790642195725014</v>
       </c>
       <c r="D3">
-        <v>-0.0305142474883467</v>
+        <v>0.01613211634169004</v>
       </c>
       <c r="E3">
-        <v>0.01497492133803448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1052334894161441</v>
+      </c>
+      <c r="F3">
+        <v>0.02950996874364161</v>
+      </c>
+      <c r="G3">
+        <v>0.1543869348078865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02342658189410404</v>
+        <v>-0.05834498893074572</v>
       </c>
       <c r="C4">
-        <v>-0.01542910302488816</v>
+        <v>0.06567458991747782</v>
       </c>
       <c r="D4">
-        <v>-0.0657819850232907</v>
+        <v>0.02387731499619929</v>
       </c>
       <c r="E4">
-        <v>-0.01277179142732991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02429174053085116</v>
+      </c>
+      <c r="F4">
+        <v>0.008753142854175557</v>
+      </c>
+      <c r="G4">
+        <v>0.07530750031980335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01530673606347293</v>
+        <v>-0.03878579575735439</v>
       </c>
       <c r="C6">
-        <v>-0.008310199313874967</v>
+        <v>0.05270896755674828</v>
       </c>
       <c r="D6">
-        <v>-0.08519072227343598</v>
+        <v>0.01650035964861391</v>
       </c>
       <c r="E6">
-        <v>-0.007308997929661965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02628136184899706</v>
+      </c>
+      <c r="F6">
+        <v>0.01356380787257316</v>
+      </c>
+      <c r="G6">
+        <v>0.05694662040547652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01112650941666492</v>
+        <v>-0.01992116986719582</v>
       </c>
       <c r="C7">
-        <v>-0.007799953694329167</v>
+        <v>0.04071726968149735</v>
       </c>
       <c r="D7">
-        <v>-0.04109392508190646</v>
+        <v>0.01308648222612226</v>
       </c>
       <c r="E7">
-        <v>-0.05902116928892851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005466440566205017</v>
+      </c>
+      <c r="F7">
+        <v>-0.003095460203466719</v>
+      </c>
+      <c r="G7">
+        <v>0.1152622175316582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001076200075139686</v>
+        <v>-0.001141751085165715</v>
       </c>
       <c r="C8">
-        <v>0.001220955806333424</v>
+        <v>0.02114490602045265</v>
       </c>
       <c r="D8">
-        <v>-0.002467259381714459</v>
+        <v>0.003835253310674706</v>
       </c>
       <c r="E8">
-        <v>-0.007508316649317687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02315053672830051</v>
+      </c>
+      <c r="F8">
+        <v>0.01746966519777172</v>
+      </c>
+      <c r="G8">
+        <v>0.04591551463512411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01638893498727107</v>
+        <v>-0.03370605049398773</v>
       </c>
       <c r="C9">
-        <v>-0.01816853814592711</v>
+        <v>0.04632901432046596</v>
       </c>
       <c r="D9">
-        <v>-0.04919530593069361</v>
+        <v>0.01644334726999935</v>
       </c>
       <c r="E9">
-        <v>-0.001689282009173063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01744056257177086</v>
+      </c>
+      <c r="F9">
+        <v>0.0141042814844872</v>
+      </c>
+      <c r="G9">
+        <v>0.07940754277022928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02180974095167436</v>
+        <v>-0.09569998530216313</v>
       </c>
       <c r="C10">
-        <v>-0.1685788382482771</v>
+        <v>-0.1831055075511807</v>
       </c>
       <c r="D10">
-        <v>0.09880008161726009</v>
+        <v>-0.01621089941988436</v>
       </c>
       <c r="E10">
-        <v>0.009825041978950316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01498912260294084</v>
+      </c>
+      <c r="F10">
+        <v>-0.0196043498427954</v>
+      </c>
+      <c r="G10">
+        <v>0.05173236885158753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007147488055782036</v>
+        <v>-0.03407124462637404</v>
       </c>
       <c r="C11">
-        <v>-0.004971650691057743</v>
+        <v>0.05415446995372698</v>
       </c>
       <c r="D11">
-        <v>-0.04263568806919246</v>
+        <v>0.002555401124484335</v>
       </c>
       <c r="E11">
-        <v>0.006445532199079519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009877693837293372</v>
+      </c>
+      <c r="F11">
+        <v>0.02264570887436647</v>
+      </c>
+      <c r="G11">
+        <v>0.06205089834169748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006425810216585242</v>
+        <v>-0.03621235760523845</v>
       </c>
       <c r="C12">
-        <v>-0.01153605900853081</v>
+        <v>0.04889232077163284</v>
       </c>
       <c r="D12">
-        <v>-0.0487242520857106</v>
+        <v>0.00622380108510514</v>
       </c>
       <c r="E12">
-        <v>-0.004918076963201632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0003826696157733497</v>
+      </c>
+      <c r="F12">
+        <v>0.002476810864165121</v>
+      </c>
+      <c r="G12">
+        <v>0.05830068430162481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0237606083679907</v>
+        <v>-0.01578148599943383</v>
       </c>
       <c r="C13">
-        <v>-0.01925897956084624</v>
+        <v>0.03693063179101919</v>
       </c>
       <c r="D13">
-        <v>0.0009497255610894629</v>
+        <v>0.02611170749512601</v>
       </c>
       <c r="E13">
-        <v>0.009407878586233704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02927241331558104</v>
+      </c>
+      <c r="F13">
+        <v>0.008408407975222689</v>
+      </c>
+      <c r="G13">
+        <v>0.09326839256195178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00864164212143541</v>
+        <v>-0.008053899166666918</v>
       </c>
       <c r="C14">
-        <v>-0.01567426748495148</v>
+        <v>0.02589014733774603</v>
       </c>
       <c r="D14">
-        <v>-0.007067155115374725</v>
+        <v>0.009209577155137493</v>
       </c>
       <c r="E14">
-        <v>-0.008228757246137006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.001501573714732109</v>
+      </c>
+      <c r="F14">
+        <v>-0.002896266253232443</v>
+      </c>
+      <c r="G14">
+        <v>0.07856324037858273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001510009310835272</v>
+        <v>-0.03327778825817544</v>
       </c>
       <c r="C16">
-        <v>-0.01051925574577174</v>
+        <v>0.04857486444147651</v>
       </c>
       <c r="D16">
-        <v>-0.04943812241453993</v>
+        <v>0.002035799292302675</v>
       </c>
       <c r="E16">
-        <v>-0.004025556628020471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008085208227357426</v>
+      </c>
+      <c r="F16">
+        <v>0.003656595568791454</v>
+      </c>
+      <c r="G16">
+        <v>0.06562171738987785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01460328611286722</v>
+        <v>-0.02247123616921033</v>
       </c>
       <c r="C19">
-        <v>-0.0216223014435269</v>
+        <v>0.05003716908019711</v>
       </c>
       <c r="D19">
-        <v>-0.01757930563140509</v>
+        <v>0.01805126101776181</v>
       </c>
       <c r="E19">
-        <v>-0.00385928818140467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06496212562866908</v>
+      </c>
+      <c r="F19">
+        <v>0.02177293517114533</v>
+      </c>
+      <c r="G19">
+        <v>0.107257862060729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01061918784519173</v>
+        <v>-0.01435517488872323</v>
       </c>
       <c r="C20">
-        <v>-0.006897694774886996</v>
+        <v>0.03542677668044902</v>
       </c>
       <c r="D20">
-        <v>-0.01297510876009315</v>
+        <v>0.01366785873864584</v>
       </c>
       <c r="E20">
-        <v>0.01189688254167015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02789951121112772</v>
+      </c>
+      <c r="F20">
+        <v>-0.003675780782124714</v>
+      </c>
+      <c r="G20">
+        <v>0.07828263994249909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01477893707529173</v>
+        <v>-0.01311104337630008</v>
       </c>
       <c r="C21">
-        <v>-0.01895237421132306</v>
+        <v>0.0391620070011773</v>
       </c>
       <c r="D21">
-        <v>-0.02278992767652609</v>
+        <v>0.01797579679579265</v>
       </c>
       <c r="E21">
-        <v>-0.009838679989434067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04015176322140549</v>
+      </c>
+      <c r="F21">
+        <v>0.001718227229342395</v>
+      </c>
+      <c r="G21">
+        <v>0.1122539923614709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004508748101755295</v>
+        <v>-0.02727211085316169</v>
       </c>
       <c r="C24">
-        <v>0.0002929884568309269</v>
+        <v>0.05130921938264165</v>
       </c>
       <c r="D24">
-        <v>-0.04405934400084625</v>
+        <v>0.007373578327089828</v>
       </c>
       <c r="E24">
-        <v>0.0001488916054626059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005538422295072557</v>
+      </c>
+      <c r="F24">
+        <v>0.01520552483262218</v>
+      </c>
+      <c r="G24">
+        <v>0.06638684552229157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01242109078791594</v>
+        <v>-0.04200714945260679</v>
       </c>
       <c r="C25">
-        <v>-0.01713069189175365</v>
+        <v>0.05801219055206806</v>
       </c>
       <c r="D25">
-        <v>-0.04535901125559025</v>
+        <v>0.01137539955459487</v>
       </c>
       <c r="E25">
-        <v>-0.0002365978888635586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0006865606665366577</v>
+      </c>
+      <c r="F25">
+        <v>0.01073395308395897</v>
+      </c>
+      <c r="G25">
+        <v>0.07277967266058991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02343146668999081</v>
+        <v>-0.01595819726829725</v>
       </c>
       <c r="C26">
-        <v>-0.01198419344239612</v>
+        <v>0.008999112151767926</v>
       </c>
       <c r="D26">
-        <v>0.001544818038488119</v>
+        <v>0.02338320212636717</v>
       </c>
       <c r="E26">
-        <v>-0.007606423675266719</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002515117563437017</v>
+      </c>
+      <c r="F26">
+        <v>-0.006990575182590487</v>
+      </c>
+      <c r="G26">
+        <v>0.06326825007514283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04508762826447649</v>
+        <v>-0.1207646055962044</v>
       </c>
       <c r="C28">
-        <v>-0.2414337279885188</v>
+        <v>-0.2343934216047724</v>
       </c>
       <c r="D28">
-        <v>0.1489581907396643</v>
+        <v>-0.00687093180073271</v>
       </c>
       <c r="E28">
-        <v>-0.01230228361428484</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.003671285113828548</v>
+      </c>
+      <c r="F28">
+        <v>-0.01808200559467975</v>
+      </c>
+      <c r="G28">
+        <v>0.07076448986601572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009077773781322017</v>
+        <v>-0.01073016771794012</v>
       </c>
       <c r="C29">
-        <v>-0.02029279746195565</v>
+        <v>0.0199791117902775</v>
       </c>
       <c r="D29">
-        <v>-0.004888676256039364</v>
+        <v>0.007969870046029701</v>
       </c>
       <c r="E29">
-        <v>-0.004176599879118761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.003571527278810186</v>
+      </c>
+      <c r="F29">
+        <v>-0.01304899202981218</v>
+      </c>
+      <c r="G29">
+        <v>0.07129622817252795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02381053556853552</v>
+        <v>-0.04297361412307301</v>
       </c>
       <c r="C30">
-        <v>-0.001251634149603448</v>
+        <v>0.06607808790120175</v>
       </c>
       <c r="D30">
-        <v>-0.05893889630358962</v>
+        <v>0.0289335564895996</v>
       </c>
       <c r="E30">
-        <v>0.0490620330561024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05276237024127794</v>
+      </c>
+      <c r="F30">
+        <v>0.05057023590022176</v>
+      </c>
+      <c r="G30">
+        <v>0.07911297713093988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01010219792773281</v>
+        <v>-0.05357382400979044</v>
       </c>
       <c r="C31">
-        <v>-0.04148018195757947</v>
+        <v>0.03563998694878606</v>
       </c>
       <c r="D31">
-        <v>-0.04662994557488818</v>
+        <v>0.003121355050054545</v>
       </c>
       <c r="E31">
-        <v>-0.009953047622288325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006057118383988777</v>
+      </c>
+      <c r="F31">
+        <v>-0.03917507331307462</v>
+      </c>
+      <c r="G31">
+        <v>0.06764335825113484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005397993599842317</v>
+        <v>-0.0008130993908269505</v>
       </c>
       <c r="C32">
-        <v>-0.02081424310267152</v>
+        <v>0.02288794078207675</v>
       </c>
       <c r="D32">
-        <v>0.01013451883375138</v>
+        <v>-0.003795864392592193</v>
       </c>
       <c r="E32">
-        <v>-0.05044077207677625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01764650930222189</v>
+      </c>
+      <c r="F32">
+        <v>0.04412974687426115</v>
+      </c>
+      <c r="G32">
+        <v>0.09471300375058858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0141304701079857</v>
+        <v>-0.0276137415243733</v>
       </c>
       <c r="C33">
-        <v>-0.02481739854735002</v>
+        <v>0.04878495972651815</v>
       </c>
       <c r="D33">
-        <v>-0.0287681553354821</v>
+        <v>0.01533662579415391</v>
       </c>
       <c r="E33">
-        <v>0.03064464042042242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03401652923613439</v>
+      </c>
+      <c r="F33">
+        <v>0.01841697399972875</v>
+      </c>
+      <c r="G33">
+        <v>0.1049622872957927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003823915236936135</v>
+        <v>-0.03920751566561912</v>
       </c>
       <c r="C34">
-        <v>-0.01765143744362743</v>
+        <v>0.06276400559290757</v>
       </c>
       <c r="D34">
-        <v>-0.05103533311593993</v>
+        <v>-0.004287489014777928</v>
       </c>
       <c r="E34">
-        <v>-0.008629052576665328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-8.410261499194123e-05</v>
+      </c>
+      <c r="F34">
+        <v>0.02236137841566728</v>
+      </c>
+      <c r="G34">
+        <v>0.07412237823735997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01324165843006885</v>
+        <v>-0.01510912833937361</v>
       </c>
       <c r="C36">
-        <v>-0.02061200007739691</v>
+        <v>0.009255216532775955</v>
       </c>
       <c r="D36">
-        <v>-0.002904279781462557</v>
+        <v>0.01177353062563825</v>
       </c>
       <c r="E36">
-        <v>-0.002729519496516103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002018106151944309</v>
+      </c>
+      <c r="F36">
+        <v>-0.006747606496214097</v>
+      </c>
+      <c r="G36">
+        <v>0.05960599213269606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003095138243217048</v>
+        <v>-0.03259296987936509</v>
       </c>
       <c r="C38">
-        <v>-0.03494876246786436</v>
+        <v>0.02975983086467317</v>
       </c>
       <c r="D38">
-        <v>-0.03758817866599914</v>
+        <v>-0.007813653818780734</v>
       </c>
       <c r="E38">
-        <v>-0.005177138244142755</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001677052363683345</v>
+      </c>
+      <c r="F38">
+        <v>-0.01483162663374974</v>
+      </c>
+      <c r="G38">
+        <v>0.06495110824925364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004540267860200948</v>
+        <v>-0.0349885455736729</v>
       </c>
       <c r="C39">
-        <v>0.02096289962274609</v>
+        <v>0.08088698687243912</v>
       </c>
       <c r="D39">
-        <v>-0.08596144820739364</v>
+        <v>0.01196626326448986</v>
       </c>
       <c r="E39">
-        <v>0.01281035943628097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02138013820145295</v>
+      </c>
+      <c r="F39">
+        <v>0.02748645619912198</v>
+      </c>
+      <c r="G39">
+        <v>0.06298703496580149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.012614938468047</v>
+        <v>-0.01729696238152858</v>
       </c>
       <c r="C40">
-        <v>-0.0204249302635928</v>
+        <v>0.03419281710255462</v>
       </c>
       <c r="D40">
-        <v>-0.02593480704604291</v>
+        <v>0.01413227870163802</v>
       </c>
       <c r="E40">
-        <v>-0.001732240843220254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02414377723973512</v>
+      </c>
+      <c r="F40">
+        <v>0.01317815187462174</v>
+      </c>
+      <c r="G40">
+        <v>0.07318740691355353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006436107388758332</v>
+        <v>-0.01855698356641699</v>
       </c>
       <c r="C41">
-        <v>-0.0213474627717403</v>
+        <v>2.872996483047168e-05</v>
       </c>
       <c r="D41">
-        <v>0.008490353158894678</v>
+        <v>0.003788528783688938</v>
       </c>
       <c r="E41">
-        <v>-0.002829281113090835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0002494547748695359</v>
+      </c>
+      <c r="F41">
+        <v>-0.01148141268753946</v>
+      </c>
+      <c r="G41">
+        <v>0.04961628761670769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09445766564079323</v>
+        <v>-0.0113625865449725</v>
       </c>
       <c r="C42">
-        <v>0.01540790001666574</v>
+        <v>0.03809624331070847</v>
       </c>
       <c r="D42">
-        <v>-0.2763616613867274</v>
+        <v>0.09366743076313269</v>
       </c>
       <c r="E42">
-        <v>0.4260892288045717</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02818310509719865</v>
+      </c>
+      <c r="F42">
+        <v>-0.04198604054896479</v>
+      </c>
+      <c r="G42">
+        <v>-0.1597265790575599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007721131191293321</v>
+        <v>-0.03363893017807575</v>
       </c>
       <c r="C43">
-        <v>-0.02552996615889879</v>
+        <v>0.0137991239649678</v>
       </c>
       <c r="D43">
-        <v>0.007866739801524369</v>
+        <v>0.005379175323912747</v>
       </c>
       <c r="E43">
-        <v>0.003229144949316552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01315107250478489</v>
+      </c>
+      <c r="F43">
+        <v>-0.003697826497585687</v>
+      </c>
+      <c r="G43">
+        <v>0.07268852084255216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002491075461410275</v>
+        <v>-0.01316770441063593</v>
       </c>
       <c r="C44">
-        <v>-0.002144576003972064</v>
+        <v>0.05314646008910704</v>
       </c>
       <c r="D44">
-        <v>-0.03418018070373146</v>
+        <v>0.006428547603590333</v>
       </c>
       <c r="E44">
-        <v>-0.004807644996085234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01810045194341502</v>
+      </c>
+      <c r="F44">
+        <v>-0.004089171462712237</v>
+      </c>
+      <c r="G44">
+        <v>0.08319772165609433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01129217008651288</v>
+        <v>-0.007631884525606267</v>
       </c>
       <c r="C46">
-        <v>-0.01500208777310406</v>
+        <v>0.01624937047799183</v>
       </c>
       <c r="D46">
-        <v>-0.009517538741233776</v>
+        <v>0.01186880547068623</v>
       </c>
       <c r="E46">
-        <v>0.001111703029662399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001631257347657984</v>
+      </c>
+      <c r="F46">
+        <v>-0.01559179578213042</v>
+      </c>
+      <c r="G46">
+        <v>0.07296421349885626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004792854677470096</v>
+        <v>-0.07896658947990079</v>
       </c>
       <c r="C47">
-        <v>-0.05178098264639048</v>
+        <v>0.0642283043081221</v>
       </c>
       <c r="D47">
-        <v>-0.06849313852390201</v>
+        <v>-0.005479109346796789</v>
       </c>
       <c r="E47">
-        <v>-0.004969914187659952</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0104637630035094</v>
+      </c>
+      <c r="F47">
+        <v>-0.05441578774478797</v>
+      </c>
+      <c r="G47">
+        <v>0.06547259509795027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004253633147782369</v>
+        <v>-0.02101583632639642</v>
       </c>
       <c r="C48">
-        <v>-0.02615151570709713</v>
+        <v>0.01098341962983253</v>
       </c>
       <c r="D48">
-        <v>-0.01494982034528305</v>
+        <v>0.001005951947352722</v>
       </c>
       <c r="E48">
-        <v>-0.001817678931023903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00233298972277896</v>
+      </c>
+      <c r="F48">
+        <v>-0.02028383354555714</v>
+      </c>
+      <c r="G48">
+        <v>0.06678221829594599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006803412862477647</v>
+        <v>-0.07697201682235895</v>
       </c>
       <c r="C50">
-        <v>-0.05332465294964654</v>
+        <v>0.06802937757414085</v>
       </c>
       <c r="D50">
-        <v>-0.07101186655793668</v>
+        <v>-0.003148111385086077</v>
       </c>
       <c r="E50">
-        <v>-0.03242683672805608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01069180055109551</v>
+      </c>
+      <c r="F50">
+        <v>-0.05783187221354304</v>
+      </c>
+      <c r="G50">
+        <v>0.08509103441156418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007568654776773547</v>
+        <v>-0.01361925961354719</v>
       </c>
       <c r="C51">
-        <v>-0.01681214309931044</v>
+        <v>0.03342789082520679</v>
       </c>
       <c r="D51">
-        <v>0.0007008173236168144</v>
+        <v>0.01002150962159553</v>
       </c>
       <c r="E51">
-        <v>-0.004919836336458588</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01720714743701647</v>
+      </c>
+      <c r="F51">
+        <v>0.02536900371493805</v>
+      </c>
+      <c r="G51">
+        <v>0.1023083427898153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007944934557201596</v>
+        <v>-0.08319632124431035</v>
       </c>
       <c r="C53">
-        <v>-0.06295659512880637</v>
+        <v>0.08090222139966423</v>
       </c>
       <c r="D53">
-        <v>-0.1249795508140856</v>
+        <v>-0.004609548108410436</v>
       </c>
       <c r="E53">
-        <v>-0.0116681213583892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03004236763508418</v>
+      </c>
+      <c r="F53">
+        <v>-0.0588823739036471</v>
+      </c>
+      <c r="G53">
+        <v>0.05843788394855381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002096092971184958</v>
+        <v>-0.03019496625551455</v>
       </c>
       <c r="C54">
-        <v>-0.03683732569461408</v>
+        <v>0.01597607817810094</v>
       </c>
       <c r="D54">
-        <v>0.001711660645676892</v>
+        <v>-0.001879963513183963</v>
       </c>
       <c r="E54">
-        <v>-0.003057511065682895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.007914193728607109</v>
+      </c>
+      <c r="F54">
+        <v>-0.004897309152343537</v>
+      </c>
+      <c r="G54">
+        <v>0.07725368038558521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004031762901693054</v>
+        <v>-0.07313113794735049</v>
       </c>
       <c r="C55">
-        <v>-0.0417522045468174</v>
+        <v>0.06754852821730283</v>
       </c>
       <c r="D55">
-        <v>-0.1042699682765836</v>
+        <v>-0.005680374903111634</v>
       </c>
       <c r="E55">
-        <v>0.001913837102396767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02615113280163283</v>
+      </c>
+      <c r="F55">
+        <v>-0.05819723375485746</v>
+      </c>
+      <c r="G55">
+        <v>0.03708679687851662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007192673462187447</v>
+        <v>-0.1404145602199187</v>
       </c>
       <c r="C56">
-        <v>-0.0879767449108199</v>
+        <v>0.1071991855662627</v>
       </c>
       <c r="D56">
-        <v>-0.1592859553245626</v>
+        <v>-0.0128662027418439</v>
       </c>
       <c r="E56">
-        <v>0.000177928308236442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03426759252687599</v>
+      </c>
+      <c r="F56">
+        <v>-0.07746956034190546</v>
+      </c>
+      <c r="G56">
+        <v>0.01718707937561207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02390649870701417</v>
+        <v>-0.007286492987105035</v>
       </c>
       <c r="C57">
-        <v>-0.01290352365951074</v>
+        <v>0.009133391396052761</v>
       </c>
       <c r="D57">
-        <v>-0.0415394366315868</v>
+        <v>0.02359468709598657</v>
       </c>
       <c r="E57">
-        <v>0.003545283128516003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02442515746755378</v>
+      </c>
+      <c r="F57">
+        <v>0.009688023416228125</v>
+      </c>
+      <c r="G57">
+        <v>0.0277586823227223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01718170911122095</v>
+        <v>-0.06835962114458204</v>
       </c>
       <c r="C58">
-        <v>-0.08627227687878235</v>
+        <v>0.04193823379452904</v>
       </c>
       <c r="D58">
-        <v>-0.1214764909229219</v>
+        <v>0.02647480031022951</v>
       </c>
       <c r="E58">
-        <v>0.4084189529408774</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9325098575289188</v>
+      </c>
+      <c r="F58">
+        <v>-0.2505934855428823</v>
+      </c>
+      <c r="G58">
+        <v>-0.09984193461494711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04252558570150569</v>
+        <v>-0.1574094290030179</v>
       </c>
       <c r="C59">
-        <v>-0.2580459915791699</v>
+        <v>-0.2053336670122739</v>
       </c>
       <c r="D59">
-        <v>0.1518631980261101</v>
+        <v>-0.01266624805093722</v>
       </c>
       <c r="E59">
-        <v>-0.006206368870463383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01417574829748081</v>
+      </c>
+      <c r="F59">
+        <v>0.004395839631961294</v>
+      </c>
+      <c r="G59">
+        <v>0.03689998930142112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04296715659943897</v>
+        <v>-0.2871010260258304</v>
       </c>
       <c r="C60">
-        <v>-0.1636241526689334</v>
+        <v>0.09783769169952945</v>
       </c>
       <c r="D60">
-        <v>-0.07858504697481002</v>
+        <v>0.01325774324138659</v>
       </c>
       <c r="E60">
-        <v>-4.396769271309857e-06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.003125764151097899</v>
+      </c>
+      <c r="F60">
+        <v>0.3526649119542712</v>
+      </c>
+      <c r="G60">
+        <v>-0.1378577204066342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003205882373187</v>
+        <v>-0.0363963040099672</v>
       </c>
       <c r="C61">
-        <v>-0.006029112090356095</v>
+        <v>0.06640992980873366</v>
       </c>
       <c r="D61">
-        <v>-0.0611736594295792</v>
+        <v>0.005416822491878841</v>
       </c>
       <c r="E61">
-        <v>-0.0007209355860735143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01396881717411123</v>
+      </c>
+      <c r="F61">
+        <v>0.01621916315474541</v>
+      </c>
+      <c r="G61">
+        <v>0.06473824371517739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00793834899922791</v>
+        <v>-0.01433202211722533</v>
       </c>
       <c r="C63">
-        <v>-0.008644585566611121</v>
+        <v>0.02898114858541329</v>
       </c>
       <c r="D63">
-        <v>-0.01121306725692817</v>
+        <v>0.008111014317405817</v>
       </c>
       <c r="E63">
-        <v>-0.008884986717859403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001360604909659584</v>
+      </c>
+      <c r="F63">
+        <v>-0.01648259512980538</v>
+      </c>
+      <c r="G63">
+        <v>0.07213529013259345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009237591287464764</v>
+        <v>-0.04653344049783203</v>
       </c>
       <c r="C64">
-        <v>-0.02918924920661306</v>
+        <v>0.04645463878672791</v>
       </c>
       <c r="D64">
-        <v>-0.06172788297983457</v>
+        <v>0.006419787943585937</v>
       </c>
       <c r="E64">
-        <v>0.01511979358556989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.002712851989417655</v>
+      </c>
+      <c r="F64">
+        <v>0.005368791181804201</v>
+      </c>
+      <c r="G64">
+        <v>0.06186343961174388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01724462145718401</v>
+        <v>-0.07857106536198503</v>
       </c>
       <c r="C65">
-        <v>-0.007472061516519151</v>
+        <v>0.05933597881866891</v>
       </c>
       <c r="D65">
-        <v>-0.1006142111054712</v>
+        <v>0.01631646151869759</v>
       </c>
       <c r="E65">
-        <v>-0.009980716028920636</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0276518509847115</v>
+      </c>
+      <c r="F65">
+        <v>0.03167272883257025</v>
+      </c>
+      <c r="G65">
+        <v>0.0246539593496926</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004328264678211362</v>
+        <v>-0.05087534942403176</v>
       </c>
       <c r="C66">
-        <v>0.01659882929108381</v>
+        <v>0.1118519510970233</v>
       </c>
       <c r="D66">
-        <v>-0.1102525874517801</v>
+        <v>0.01206118684088927</v>
       </c>
       <c r="E66">
-        <v>0.01022418702866896</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02973453841867158</v>
+      </c>
+      <c r="F66">
+        <v>0.03605857378822617</v>
+      </c>
+      <c r="G66">
+        <v>0.07362237490522301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003761538891610107</v>
+        <v>-0.05525758348043945</v>
       </c>
       <c r="C67">
-        <v>-0.05667463685187273</v>
+        <v>0.03304870881918574</v>
       </c>
       <c r="D67">
-        <v>-0.04347817702834122</v>
+        <v>-0.006040666562035792</v>
       </c>
       <c r="E67">
-        <v>-0.006806425581190751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005222332834429262</v>
+      </c>
+      <c r="F67">
+        <v>-0.0159302202247567</v>
+      </c>
+      <c r="G67">
+        <v>0.05989971361608848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05890742916907522</v>
+        <v>-0.1445068941809937</v>
       </c>
       <c r="C68">
-        <v>-0.2330128354262487</v>
+        <v>-0.2701924221941785</v>
       </c>
       <c r="D68">
-        <v>0.1573652436936436</v>
+        <v>0.005101540740850449</v>
       </c>
       <c r="E68">
-        <v>0.01472210847904931</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01071013633377149</v>
+      </c>
+      <c r="F68">
+        <v>-0.02865323587450761</v>
+      </c>
+      <c r="G68">
+        <v>0.02212842973881361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.000558546241332301</v>
+        <v>-0.08200454548017423</v>
       </c>
       <c r="C69">
-        <v>-0.0407531244411157</v>
+        <v>0.0672751459493308</v>
       </c>
       <c r="D69">
-        <v>-0.06879817204984433</v>
+        <v>-0.009577327020404867</v>
       </c>
       <c r="E69">
-        <v>-0.009322952497475064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02728214291804839</v>
+      </c>
+      <c r="F69">
+        <v>-0.03805437751800186</v>
+      </c>
+      <c r="G69">
+        <v>0.06749570991745643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04393526238263051</v>
+        <v>-0.1338850666048191</v>
       </c>
       <c r="C71">
-        <v>-0.2064053235987648</v>
+        <v>-0.2301867765098754</v>
       </c>
       <c r="D71">
-        <v>0.1271227399869037</v>
+        <v>-0.003562636040276666</v>
       </c>
       <c r="E71">
-        <v>0.008008200688336561</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02992152596196963</v>
+      </c>
+      <c r="F71">
+        <v>-0.01275977122847526</v>
+      </c>
+      <c r="G71">
+        <v>0.05256181212578685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>3.501147499881802e-05</v>
+        <v>-0.08655906612983283</v>
       </c>
       <c r="C72">
-        <v>-0.04342210289180892</v>
+        <v>0.07172397181280316</v>
       </c>
       <c r="D72">
-        <v>-0.1184333045037575</v>
+        <v>-0.007875169982057603</v>
       </c>
       <c r="E72">
-        <v>-0.003795559958437117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0008546286913606442</v>
+      </c>
+      <c r="F72">
+        <v>0.04627716804137318</v>
+      </c>
+      <c r="G72">
+        <v>0.05462562510479468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.056146776030948</v>
+        <v>-0.3820041617962869</v>
       </c>
       <c r="C73">
-        <v>-0.1836198383036804</v>
+        <v>0.1153362812647382</v>
       </c>
       <c r="D73">
-        <v>-0.1569111770220938</v>
+        <v>0.02318327288068397</v>
       </c>
       <c r="E73">
-        <v>0.04170830267238697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07190560455979056</v>
+      </c>
+      <c r="F73">
+        <v>0.5641367767385117</v>
+      </c>
+      <c r="G73">
+        <v>-0.2157495091080845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004247898132281735</v>
+        <v>-0.1091371336153898</v>
       </c>
       <c r="C74">
-        <v>-0.07500069271674537</v>
+        <v>0.1106690484404615</v>
       </c>
       <c r="D74">
-        <v>-0.1605687147159705</v>
+        <v>-0.009986491908000451</v>
       </c>
       <c r="E74">
-        <v>0.01119097722476003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01369444354133189</v>
+      </c>
+      <c r="F74">
+        <v>-0.07188960594919819</v>
+      </c>
+      <c r="G74">
+        <v>0.06311602173843926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01381739299171016</v>
+        <v>-0.2502623762873378</v>
       </c>
       <c r="C75">
-        <v>-0.1760753261204278</v>
+        <v>0.1481968841465848</v>
       </c>
       <c r="D75">
-        <v>-0.2937634215670735</v>
+        <v>-0.0307996519933464</v>
       </c>
       <c r="E75">
-        <v>0.01624680596509384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05905158127806284</v>
+      </c>
+      <c r="F75">
+        <v>-0.1807734499860817</v>
+      </c>
+      <c r="G75">
+        <v>-0.04491076276729093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001548962079351913</v>
+        <v>-0.1236901501632156</v>
       </c>
       <c r="C76">
-        <v>-0.1113038996870738</v>
+        <v>0.1116883580624437</v>
       </c>
       <c r="D76">
-        <v>-0.2283609484840202</v>
+        <v>-0.02043188503605502</v>
       </c>
       <c r="E76">
-        <v>-0.03153468475931307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04277190465144216</v>
+      </c>
+      <c r="F76">
+        <v>-0.1127668184996615</v>
+      </c>
+      <c r="G76">
+        <v>0.04151213337268909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01432454402223519</v>
+        <v>-0.06612077939351586</v>
       </c>
       <c r="C77">
-        <v>-0.02483965664898843</v>
+        <v>0.05878019827338099</v>
       </c>
       <c r="D77">
-        <v>-0.03628048590892871</v>
+        <v>0.01263167365411741</v>
       </c>
       <c r="E77">
-        <v>0.0190432364724482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05094684847375986</v>
+      </c>
+      <c r="F77">
+        <v>0.01382174602053547</v>
+      </c>
+      <c r="G77">
+        <v>0.06076438678883333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006771361729887116</v>
+        <v>-0.04471814029577263</v>
       </c>
       <c r="C78">
-        <v>-0.02309580453396857</v>
+        <v>0.04869824118280825</v>
       </c>
       <c r="D78">
-        <v>-0.04045463777168004</v>
+        <v>0.00559030324163675</v>
       </c>
       <c r="E78">
-        <v>0.00596362662226502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02395762152797943</v>
+      </c>
+      <c r="F78">
+        <v>0.03827890751798446</v>
+      </c>
+      <c r="G78">
+        <v>0.06880902878996342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01721484036136476</v>
+        <v>-0.05739584552421656</v>
       </c>
       <c r="C80">
-        <v>-0.08931549520036658</v>
+        <v>0.07007101606754416</v>
       </c>
       <c r="D80">
-        <v>-0.2319871557548634</v>
+        <v>0.01022009396217109</v>
       </c>
       <c r="E80">
-        <v>-0.7805856212335669</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02577420157755381</v>
+      </c>
+      <c r="F80">
+        <v>0.01033114729126875</v>
+      </c>
+      <c r="G80">
+        <v>0.6547670272255809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008799250784024579</v>
+        <v>-0.1417332411904008</v>
       </c>
       <c r="C81">
-        <v>-0.104579557814267</v>
+        <v>0.09294372948189383</v>
       </c>
       <c r="D81">
-        <v>-0.1710161948665719</v>
+        <v>-0.01575368926671185</v>
       </c>
       <c r="E81">
-        <v>-0.01077658970697859</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03707407916103413</v>
+      </c>
+      <c r="F81">
+        <v>-0.1276268699547456</v>
+      </c>
+      <c r="G81">
+        <v>0.02126666081657686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1224080276817697</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06445115322315438</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.007496532441287502</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08708610303407868</v>
+      </c>
+      <c r="F82">
+        <v>-0.02359960400322788</v>
+      </c>
+      <c r="G82">
+        <v>0.02492332580396468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007167070030899628</v>
+        <v>-0.03427143867887253</v>
       </c>
       <c r="C83">
-        <v>-0.0201948815018822</v>
+        <v>0.0258152998557944</v>
       </c>
       <c r="D83">
-        <v>-0.01922489708357442</v>
+        <v>0.005687050796842264</v>
       </c>
       <c r="E83">
-        <v>0.001322870003451998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02831611873809579</v>
+      </c>
+      <c r="F83">
+        <v>0.03462919546677013</v>
+      </c>
+      <c r="G83">
+        <v>0.04393630766176508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02005059633779022</v>
+        <v>-0.2176467911667417</v>
       </c>
       <c r="C85">
-        <v>-0.1390077280069276</v>
+        <v>0.1424757578636789</v>
       </c>
       <c r="D85">
-        <v>-0.2675898591325102</v>
+        <v>-0.01857566634576089</v>
       </c>
       <c r="E85">
-        <v>0.009984153917578613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1006241955776182</v>
+      </c>
+      <c r="F85">
+        <v>-0.1442279156847789</v>
+      </c>
+      <c r="G85">
+        <v>-0.09331889157106103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009944072468176239</v>
+        <v>-0.01417464079528827</v>
       </c>
       <c r="C86">
-        <v>-0.03298565968149463</v>
+        <v>0.0225607986631568</v>
       </c>
       <c r="D86">
-        <v>-0.006962158523134438</v>
+        <v>0.01181470781873199</v>
       </c>
       <c r="E86">
-        <v>0.03726819780963313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04750145874311016</v>
+      </c>
+      <c r="F86">
+        <v>0.04450516969083661</v>
+      </c>
+      <c r="G86">
+        <v>0.1413331775753642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008952203951891568</v>
+        <v>-0.0227139119220664</v>
       </c>
       <c r="C87">
-        <v>-0.0145491378623467</v>
+        <v>0.02587493259440064</v>
       </c>
       <c r="D87">
-        <v>-0.03650124635923635</v>
+        <v>0.01205381562226934</v>
       </c>
       <c r="E87">
-        <v>0.01467179698477891</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08627501566046658</v>
+      </c>
+      <c r="F87">
+        <v>0.02228728444715109</v>
+      </c>
+      <c r="G87">
+        <v>0.09075748344632885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02785720622747112</v>
+        <v>-0.09248086929346837</v>
       </c>
       <c r="C88">
-        <v>-0.03139299414741516</v>
+        <v>0.06600628168549541</v>
       </c>
       <c r="D88">
-        <v>-0.04269562341918234</v>
+        <v>0.02248403047924325</v>
       </c>
       <c r="E88">
-        <v>-0.001359531173503479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01258771371429989</v>
+      </c>
+      <c r="F88">
+        <v>-0.02521102676785093</v>
+      </c>
+      <c r="G88">
+        <v>0.0590283060037839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08318119214624481</v>
+        <v>-0.2247634131279175</v>
       </c>
       <c r="C89">
-        <v>-0.379469797356868</v>
+        <v>-0.3727027154336238</v>
       </c>
       <c r="D89">
-        <v>0.2296767021915726</v>
+        <v>-0.002612960564318981</v>
       </c>
       <c r="E89">
-        <v>-0.0200605916168067</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02258689237011211</v>
+      </c>
+      <c r="F89">
+        <v>-0.02353629791919016</v>
+      </c>
+      <c r="G89">
+        <v>0.03701776637562518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0635581470697693</v>
+        <v>-0.201980258446903</v>
       </c>
       <c r="C90">
-        <v>-0.2935071790571718</v>
+        <v>-0.3257847944425767</v>
       </c>
       <c r="D90">
-        <v>0.201298256580169</v>
+        <v>-0.006805258315047687</v>
       </c>
       <c r="E90">
-        <v>0.01282063638986163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01308521614013378</v>
+      </c>
+      <c r="F90">
+        <v>-0.04972769433425247</v>
+      </c>
+      <c r="G90">
+        <v>0.01933207871080122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009609568190015502</v>
+        <v>-0.1922649681141567</v>
       </c>
       <c r="C91">
-        <v>-0.151137149271072</v>
+        <v>0.1398670456283432</v>
       </c>
       <c r="D91">
-        <v>-0.2297974904783815</v>
+        <v>-0.02361001308261899</v>
       </c>
       <c r="E91">
-        <v>-0.01411572436970268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07078566268044775</v>
+      </c>
+      <c r="F91">
+        <v>-0.1518163500667786</v>
+      </c>
+      <c r="G91">
+        <v>0.01611434478242967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03039602900606271</v>
+        <v>-0.1992278238045907</v>
       </c>
       <c r="C92">
-        <v>-0.3049489728508304</v>
+        <v>-0.2636463411720981</v>
       </c>
       <c r="D92">
-        <v>0.09585283092886121</v>
+        <v>-0.04098511879346708</v>
       </c>
       <c r="E92">
-        <v>0.01535382534048</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02157603324108849</v>
+      </c>
+      <c r="F92">
+        <v>-0.06135632932819437</v>
+      </c>
+      <c r="G92">
+        <v>0.1306555946381918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06170638632100753</v>
+        <v>-0.2278325296898031</v>
       </c>
       <c r="C93">
-        <v>-0.3194344056166276</v>
+        <v>-0.3241027358627075</v>
       </c>
       <c r="D93">
-        <v>0.1873064207597918</v>
+        <v>-0.01315076035717427</v>
       </c>
       <c r="E93">
-        <v>0.03844313344188769</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.001973264123751918</v>
+      </c>
+      <c r="F93">
+        <v>-0.03443133312291984</v>
+      </c>
+      <c r="G93">
+        <v>0.02443266702200581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03364655720551513</v>
+        <v>-0.3163848827352915</v>
       </c>
       <c r="C94">
-        <v>-0.1778857779886818</v>
+        <v>0.1735863128191105</v>
       </c>
       <c r="D94">
-        <v>-0.2557500636617069</v>
+        <v>-0.01858083684568315</v>
       </c>
       <c r="E94">
-        <v>0.01550616797178003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1744187986754463</v>
+      </c>
+      <c r="F94">
+        <v>-0.4798631517606323</v>
+      </c>
+      <c r="G94">
+        <v>-0.293304898958495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004295562677098188</v>
+        <v>-0.09700401373368342</v>
       </c>
       <c r="C95">
-        <v>-0.03817994180660866</v>
+        <v>0.09045960186866286</v>
       </c>
       <c r="D95">
-        <v>-0.0840753754129748</v>
+        <v>-0.008845766269593882</v>
       </c>
       <c r="E95">
-        <v>0.1284514844007643</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06300989983245843</v>
+      </c>
+      <c r="F95">
+        <v>0.1868824086152157</v>
+      </c>
+      <c r="G95">
+        <v>-0.09637576996504341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01651394848567589</v>
+        <v>-0.1988523699921109</v>
       </c>
       <c r="C98">
-        <v>-0.1658477742221729</v>
+        <v>0.04547451905785967</v>
       </c>
       <c r="D98">
-        <v>-0.1141942729585534</v>
+        <v>-0.01194824580878037</v>
       </c>
       <c r="E98">
-        <v>0.0479480167630153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07188182063499358</v>
+      </c>
+      <c r="F98">
+        <v>0.2407707432665662</v>
+      </c>
+      <c r="G98">
+        <v>-0.01884767480763709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008857352105721623</v>
+        <v>-0.01055296746533255</v>
       </c>
       <c r="C101">
-        <v>-0.01997400189985262</v>
+        <v>0.01993996353252063</v>
       </c>
       <c r="D101">
-        <v>-0.004619848073601851</v>
+        <v>0.007789790930661109</v>
       </c>
       <c r="E101">
-        <v>-0.004590687206683784</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.003859579345036777</v>
+      </c>
+      <c r="F101">
+        <v>-0.01407622660292411</v>
+      </c>
+      <c r="G101">
+        <v>0.07083344130915674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01896372919348605</v>
+        <v>-0.1179403525139615</v>
       </c>
       <c r="C102">
-        <v>-0.07816327401436605</v>
+        <v>0.08411686039378954</v>
       </c>
       <c r="D102">
-        <v>-0.1305940538974245</v>
+        <v>0.0009836814798097314</v>
       </c>
       <c r="E102">
-        <v>-6.677765814934042e-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03246489956793357</v>
+      </c>
+      <c r="F102">
+        <v>-0.04251790626573991</v>
+      </c>
+      <c r="G102">
+        <v>0.003434250984858369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001886886155063214</v>
+        <v>-0.003288127148964432</v>
       </c>
       <c r="C103">
-        <v>-0.01046371174586888</v>
+        <v>0.003913384842512422</v>
       </c>
       <c r="D103">
-        <v>-0.02345528629065503</v>
+        <v>0.0001903324269219619</v>
       </c>
       <c r="E103">
-        <v>-0.01371338260693314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001864514430674947</v>
+      </c>
+      <c r="F103">
+        <v>-0.005100351485099412</v>
+      </c>
+      <c r="G103">
+        <v>0.01341572188235269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.974292495848601</v>
+        <v>-0.02245630345428996</v>
       </c>
       <c r="C104">
-        <v>0.1798545678295932</v>
+        <v>-0.03333339157328688</v>
       </c>
       <c r="D104">
-        <v>0.01514088539690731</v>
+        <v>0.9871925155719693</v>
       </c>
       <c r="E104">
-        <v>-0.04223040784309131</v>
+        <v>-0.05240722155782447</v>
+      </c>
+      <c r="F104">
+        <v>-0.04084573517755158</v>
+      </c>
+      <c r="G104">
+        <v>-0.01952958938590502</v>
       </c>
     </row>
   </sheetData>
